--- a/Assignment2/AndrewDodgeA2-grid.xlsx
+++ b/Assignment2/AndrewDodgeA2-grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RoyalD\Documents\Class\4004 - Software Quality Assurance\Assignments\Comp4004\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC362AE-63E5-4D6E-9FE8-E91D5CBB3EEB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016ECF65-24A9-460F-809E-A166578944A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="166">
   <si>
     <t>First Name</t>
   </si>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2746,13 +2746,15 @@
         <v>35</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="12">
         <v>0.5</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F28" s="29"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -2769,13 +2771,15 @@
         <v>36</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="12">
         <v>0.5</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F29" s="29"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2792,13 +2796,15 @@
         <v>37</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="12">
         <v>0.5</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F30" s="29"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2815,13 +2821,15 @@
         <v>38</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="12">
         <v>0.5</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F31" s="29"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -2837,13 +2845,15 @@
         <v>39</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="12">
         <v>0.5</v>
       </c>
-      <c r="E32" s="29"/>
+      <c r="E32" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F32" s="29"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -2860,13 +2870,15 @@
         <v>40</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="12">
         <v>0.5</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F33" s="29"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2883,13 +2895,15 @@
         <v>41</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="12">
         <v>0.5</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F34" s="29"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -2906,13 +2920,15 @@
         <v>42</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="12">
         <v>0.5</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F35" s="29"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2929,13 +2945,15 @@
         <v>44</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="12">
         <v>0.5</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -2952,13 +2970,15 @@
         <v>45</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="12">
         <v>0.5</v>
       </c>
-      <c r="E37" s="29"/>
+      <c r="E37" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F37" s="29"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -2975,13 +2995,15 @@
         <v>46</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="12">
         <v>0.5</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="E38" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F38" s="29"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -2998,13 +3020,15 @@
         <v>47</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="12">
         <v>0.5</v>
       </c>
-      <c r="E39" s="29"/>
+      <c r="E39" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F39" s="29"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -3021,13 +3045,15 @@
         <v>48</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="12">
         <v>0.5</v>
       </c>
-      <c r="E40" s="29"/>
+      <c r="E40" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F40" s="29"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -3044,13 +3070,15 @@
         <v>49</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="12">
         <v>0.5</v>
       </c>
-      <c r="E41" s="29"/>
+      <c r="E41" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F41" s="29"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -3067,13 +3095,15 @@
         <v>50</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="12">
         <v>0.5</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="F42" s="29"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>

--- a/Assignment2/AndrewDodgeA2-grid.xlsx
+++ b/Assignment2/AndrewDodgeA2-grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RoyalD\Documents\Class\4004 - Software Quality Assurance\Assignments\Comp4004\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016ECF65-24A9-460F-809E-A166578944A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98128D0A-0E7D-4EF0-9D29-8B8DC2F9F453}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="167">
   <si>
     <t>First Name</t>
   </si>
@@ -540,17 +540,20 @@
     <t>handHasPairDefinitions.java</t>
   </si>
   <si>
-    <t>HTBHasRoyalFlushDefinitions.java</t>
-  </si>
-  <si>
     <t>FIX THIS ANDREW, TO NAME OF FUNCTION</t>
+  </si>
+  <si>
+    <t>HTBWinsDefinitions.java</t>
+  </si>
+  <si>
+    <t>ATTENTION: The logic in the base code I am working from is broken for the ones highlighted in RED, if you read my output youll see I give it valid input but still fails, I have commented out the tests that fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -584,6 +587,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -792,7 +807,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -825,6 +840,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2085,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2251,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="12"/>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2522,7 +2541,7 @@
         <v>0.5</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="7"/>
@@ -2550,7 +2569,7 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="7"/>
@@ -2578,7 +2597,7 @@
         <v>0.5</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="7"/>
@@ -2603,7 +2622,7 @@
         <v>0.5</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="7"/>
@@ -2628,7 +2647,7 @@
         <v>0.5</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="7"/>
@@ -2653,7 +2672,7 @@
         <v>0.5</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="7"/>
@@ -2678,7 +2697,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="7"/>
@@ -2703,7 +2722,7 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="7"/>
@@ -2728,7 +2747,7 @@
         <v>0.5</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="7"/>
@@ -2753,7 +2772,7 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="7"/>
@@ -2778,7 +2797,7 @@
         <v>0.5</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="7"/>
@@ -2803,7 +2822,7 @@
         <v>0.5</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="7"/>
@@ -2828,7 +2847,7 @@
         <v>0.5</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="7"/>
@@ -2852,7 +2871,7 @@
         <v>0.5</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="7"/>
@@ -2877,7 +2896,7 @@
         <v>0.5</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="7"/>
@@ -2902,7 +2921,7 @@
         <v>0.5</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="7"/>
@@ -2927,7 +2946,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="7"/>
@@ -2952,7 +2971,7 @@
         <v>0.5</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
@@ -2977,7 +2996,7 @@
         <v>0.5</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="7"/>
@@ -3002,7 +3021,7 @@
         <v>0.5</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="7"/>
@@ -3027,7 +3046,7 @@
         <v>0.5</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="7"/>
@@ -3052,7 +3071,7 @@
         <v>0.5</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="7"/>
@@ -3077,7 +3096,7 @@
         <v>0.5</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="7"/>
@@ -3102,7 +3121,7 @@
         <v>0.5</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="7"/>
@@ -3119,13 +3138,15 @@
         <v>51</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="12">
         <v>0.5</v>
       </c>
-      <c r="E43" s="29"/>
+      <c r="E43" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F43" s="29"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -3141,13 +3162,15 @@
         <v>52</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="12">
         <v>0.5</v>
       </c>
-      <c r="E44" s="29"/>
+      <c r="E44" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F44" s="29"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -3163,13 +3186,15 @@
         <v>53</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="12">
         <v>0.5</v>
       </c>
-      <c r="E45" s="29"/>
+      <c r="E45" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F45" s="29"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -3185,13 +3210,15 @@
         <v>54</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="12">
         <v>0.5</v>
       </c>
-      <c r="E46" s="29"/>
+      <c r="E46" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F46" s="29"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -3207,13 +3234,15 @@
         <v>55</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="12">
         <v>0.5</v>
       </c>
-      <c r="E47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F47" s="29"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -3229,13 +3258,15 @@
         <v>56</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="12">
         <v>0.5</v>
       </c>
-      <c r="E48" s="29"/>
+      <c r="E48" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F48" s="29"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -3251,13 +3282,15 @@
         <v>57</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="12">
         <v>0.5</v>
       </c>
-      <c r="E49" s="29"/>
+      <c r="E49" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F49" s="29"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -3273,13 +3306,15 @@
         <v>58</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="12">
         <v>0.5</v>
       </c>
-      <c r="E50" s="29"/>
+      <c r="E50" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F50" s="29"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -3295,13 +3330,15 @@
         <v>59</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="12">
         <v>0.5</v>
       </c>
-      <c r="E51" s="29"/>
+      <c r="E51" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F51" s="29"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -3317,13 +3354,15 @@
         <v>60</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="12">
         <v>0.5</v>
       </c>
-      <c r="E52" s="29"/>
+      <c r="E52" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F52" s="29"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -3339,13 +3378,15 @@
         <v>61</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="12">
         <v>0.5</v>
       </c>
-      <c r="E53" s="29"/>
+      <c r="E53" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F53" s="29"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -3361,13 +3402,15 @@
         <v>62</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="12">
         <v>0.5</v>
       </c>
-      <c r="E54" s="29"/>
+      <c r="E54" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F54" s="29"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -3383,13 +3426,15 @@
         <v>63</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="12">
         <v>0.5</v>
       </c>
-      <c r="E55" s="29"/>
+      <c r="E55" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F55" s="29"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -3405,13 +3450,15 @@
         <v>64</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="12">
         <v>0.5</v>
       </c>
-      <c r="E56" s="29"/>
+      <c r="E56" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F56" s="29"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -3427,13 +3474,15 @@
         <v>65</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="12">
         <v>0.5</v>
       </c>
-      <c r="E57" s="29"/>
+      <c r="E57" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F57" s="29"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -3449,13 +3498,15 @@
         <v>66</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="12">
         <v>0.5</v>
       </c>
-      <c r="E58" s="29"/>
+      <c r="E58" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F58" s="29"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -3471,13 +3522,15 @@
         <v>67</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="12">
         <v>0.5</v>
       </c>
-      <c r="E59" s="29"/>
+      <c r="E59" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F59" s="29"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -3493,13 +3546,15 @@
         <v>68</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="12">
         <v>0.5</v>
       </c>
-      <c r="E60" s="29"/>
+      <c r="E60" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F60" s="29"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -3515,13 +3570,15 @@
         <v>69</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="12">
         <v>0.5</v>
       </c>
-      <c r="E61" s="29"/>
+      <c r="E61" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F61" s="29"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -3537,13 +3594,15 @@
         <v>70</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="12">
         <v>0.5</v>
       </c>
-      <c r="E62" s="29"/>
+      <c r="E62" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F62" s="29"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -3559,13 +3618,15 @@
         <v>71</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="12">
         <v>0.5</v>
       </c>
-      <c r="E63" s="29"/>
+      <c r="E63" s="29" t="s">
+        <v>165</v>
+      </c>
       <c r="F63" s="29"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -3597,7 +3658,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="12">
@@ -3619,7 +3680,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="12">
@@ -3641,7 +3702,7 @@
         <v>74</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="12">
@@ -3663,7 +3724,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="12">
@@ -3687,7 +3748,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="12">
@@ -3711,7 +3772,7 @@
         <v>77</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="12">
@@ -3735,7 +3796,7 @@
         <v>78</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="12">
@@ -3759,7 +3820,7 @@
         <v>79</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="12">
@@ -3783,7 +3844,7 @@
         <v>80</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="12">
@@ -3807,7 +3868,7 @@
         <v>81</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="12">
@@ -3831,7 +3892,7 @@
         <v>82</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="12">
@@ -3855,7 +3916,7 @@
         <v>83</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="12">
@@ -3879,7 +3940,7 @@
         <v>84</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="12">
@@ -3903,7 +3964,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="12">
@@ -3927,7 +3988,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="12">
@@ -3951,7 +4012,7 @@
         <v>87</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="12">
@@ -3975,7 +4036,7 @@
         <v>88</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="12">
@@ -3999,7 +4060,7 @@
         <v>89</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="12">
@@ -4023,7 +4084,7 @@
         <v>90</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="12">
@@ -4047,7 +4108,7 @@
         <v>91</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="12">
@@ -4072,7 +4133,7 @@
         <v>92</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="12">
@@ -4097,7 +4158,7 @@
         <v>94</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="12">
@@ -4122,7 +4183,7 @@
         <v>95</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="12">
@@ -4147,7 +4208,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="12">
@@ -4171,14 +4232,16 @@
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="22" t="s">
-        <v>5</v>
+      <c r="B89" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="12">
         <v>0.5</v>
       </c>
-      <c r="E89" s="29"/>
+      <c r="E89" s="31" t="s">
+        <v>166</v>
+      </c>
       <c r="F89" s="29"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -4196,8 +4259,8 @@
       <c r="A90" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="22" t="s">
-        <v>5</v>
+      <c r="B90" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="12">
@@ -4220,8 +4283,8 @@
       <c r="A91" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>5</v>
+      <c r="B91" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="12">
@@ -4244,8 +4307,8 @@
       <c r="A92" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>5</v>
+      <c r="B92" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="12">
@@ -4268,8 +4331,8 @@
       <c r="A93" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="22" t="s">
-        <v>5</v>
+      <c r="B93" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="12">
@@ -4292,8 +4355,8 @@
       <c r="A94" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>5</v>
+      <c r="B94" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="12">
@@ -4313,11 +4376,11 @@
       <c r="IV94"/>
     </row>
     <row r="95" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="22" t="s">
-        <v>5</v>
+      <c r="B95" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="12">
@@ -4340,8 +4403,8 @@
       <c r="A96" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>5</v>
+      <c r="B96" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="12">
@@ -4364,8 +4427,8 @@
       <c r="A97" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>5</v>
+      <c r="B97" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="12">
@@ -4388,8 +4451,8 @@
       <c r="A98" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="22" t="s">
-        <v>5</v>
+      <c r="B98" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="12">
@@ -4412,8 +4475,8 @@
       <c r="A99" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="22" t="s">
-        <v>5</v>
+      <c r="B99" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="12">
@@ -4436,8 +4499,8 @@
       <c r="A100" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="22" t="s">
-        <v>5</v>
+      <c r="B100" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="12">
@@ -4460,8 +4523,8 @@
       <c r="A101" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="22" t="s">
-        <v>5</v>
+      <c r="B101" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="12">
@@ -4484,8 +4547,8 @@
       <c r="A102" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="22" t="s">
-        <v>5</v>
+      <c r="B102" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="12">
@@ -4508,8 +4571,8 @@
       <c r="A103" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="22" t="s">
-        <v>5</v>
+      <c r="B103" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="12">
@@ -5598,7 +5661,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Assignment2/AndrewDodgeA2-grid.xlsx
+++ b/Assignment2/AndrewDodgeA2-grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RoyalD\Documents\Class\4004 - Software Quality Assurance\Assignments\Comp4004\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98128D0A-0E7D-4EF0-9D29-8B8DC2F9F453}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3A2278-FE70-40B3-9862-0068C38D2F59}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4610,11 +4610,11 @@
       <c r="IV104"/>
     </row>
     <row r="105" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="22" t="s">
-        <v>5</v>
+      <c r="B105" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="12">
@@ -4637,8 +4637,8 @@
       <c r="A106" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="22" t="s">
-        <v>5</v>
+      <c r="B106" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C106" s="23"/>
       <c r="D106" s="12">

--- a/Assignment2/AndrewDodgeA2-grid.xlsx
+++ b/Assignment2/AndrewDodgeA2-grid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RoyalD\Documents\Class\4004 - Software Quality Assurance\Assignments\Comp4004\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3A2278-FE70-40B3-9862-0068C38D2F59}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0576A9F4-16FD-4395-A44B-D662C2D26664}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="168">
   <si>
     <t>First Name</t>
   </si>
@@ -546,7 +546,10 @@
     <t>HTBWinsDefinitions.java</t>
   </si>
   <si>
-    <t>ATTENTION: The logic in the base code I am working from is broken for the ones highlighted in RED, if you read my output youll see I give it valid input but still fails, I have commented out the tests that fail</t>
+    <t>yes*</t>
+  </si>
+  <si>
+    <t>*ATTENTION: The logic in the base code I am working from is broken for the ones highlighted in RED, if you read my output youll see I give it valid input but still fails</t>
   </si>
 </sst>
 </file>
@@ -2104,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2561,7 @@
       <c r="IV19"/>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -4233,14 +4236,14 @@
         <v>96</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="12">
         <v>0.5</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="7"/>
@@ -4260,7 +4263,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="12">
@@ -4284,7 +4287,7 @@
         <v>98</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="12">
@@ -4308,7 +4311,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="12">
@@ -4332,7 +4335,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="12">
@@ -4356,7 +4359,7 @@
         <v>101</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="12">
@@ -4661,8 +4664,8 @@
       <c r="A107" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="22" t="s">
-        <v>5</v>
+      <c r="B107" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="12">
@@ -4685,8 +4688,8 @@
       <c r="A108" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="22" t="s">
-        <v>5</v>
+      <c r="B108" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="12">
@@ -4709,8 +4712,8 @@
       <c r="A109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="22" t="s">
-        <v>5</v>
+      <c r="B109" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="12">
@@ -4733,8 +4736,8 @@
       <c r="A110" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="22" t="s">
-        <v>5</v>
+      <c r="B110" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="12">
@@ -4757,8 +4760,8 @@
       <c r="A111" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="22" t="s">
-        <v>5</v>
+      <c r="B111" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="12">
@@ -4781,8 +4784,8 @@
       <c r="A112" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>5</v>
+      <c r="B112" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="12">
@@ -4805,8 +4808,8 @@
       <c r="A113" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="22" t="s">
-        <v>5</v>
+      <c r="B113" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="12">
@@ -4826,11 +4829,11 @@
       <c r="IV113"/>
     </row>
     <row r="114" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B114" s="22" t="s">
-        <v>5</v>
+      <c r="B114" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="12">
@@ -4853,8 +4856,8 @@
       <c r="A115" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="22" t="s">
-        <v>5</v>
+      <c r="B115" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="12">
@@ -4877,8 +4880,8 @@
       <c r="A116" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="22" t="s">
-        <v>5</v>
+      <c r="B116" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="12">
@@ -4901,8 +4904,8 @@
       <c r="A117" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>5</v>
+      <c r="B117" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="12">
@@ -4925,8 +4928,8 @@
       <c r="A118" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="22" t="s">
-        <v>5</v>
+      <c r="B118" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C118" s="23"/>
       <c r="D118" s="12">

--- a/Assignment2/AndrewDodgeA2-grid.xlsx
+++ b/Assignment2/AndrewDodgeA2-grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RoyalD\Documents\Class\4004 - Software Quality Assurance\Assignments\Comp4004\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0576A9F4-16FD-4395-A44B-D662C2D26664}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E592A29-3867-48AF-ACEA-625A2EB803DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2108,7 +2108,7 @@
   <dimension ref="A1:IV152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4952,8 +4952,8 @@
       <c r="A119" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="22" t="s">
-        <v>5</v>
+      <c r="B119" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="12">

--- a/Assignment2/AndrewDodgeA2-grid.xlsx
+++ b/Assignment2/AndrewDodgeA2-grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RoyalD\Documents\Class\4004 - Software Quality Assurance\Assignments\Comp4004\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E592A29-3867-48AF-ACEA-625A2EB803DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35372C53-3F73-4A19-911D-8DE8C4271145}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="185">
   <si>
     <t>First Name</t>
   </si>
@@ -549,14 +549,87 @@
     <t>yes*</t>
   </si>
   <si>
-    <t>*ATTENTION: The logic in the base code I am working from is broken for the ones highlighted in RED, if you read my output youll see I give it valid input but still fails</t>
+    <t>AIPWinsDefinitions.java</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AIPWinsDefinitions.java </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*ATTENTION:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The logic in the base code I am working from is broken for the ones highlighted in RED, if you read my output youll see I give it valid input but still fails</t>
+    </r>
+  </si>
+  <si>
+    <t>AIPIsOneAwayRoyalFlushDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPIsOneAwayRoyalFlushLosesDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPIsOneAwayStraightFlushDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPIsOneAwayStraightFlushLosesDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPIsOneAwayFullHouseDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPIsOneAwayFullHouseLosesDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPHasTwoPairDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPHasTwoPairLosesDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPOneAwayFlushDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPOneAwayFlushLosesDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPOneAwayStraightDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPOneAwayStraightLosesDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPHasThreeSameSuitDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPHasThreeInSeqDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPHasOnePairDefinitions.java</t>
+  </si>
+  <si>
+    <t>AIPHasHighCardExchangeDefinitions.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -600,6 +673,14 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -810,7 +891,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -847,6 +928,8 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2107,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2353,7 @@
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="23"/>
@@ -2294,7 +2377,7 @@
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C9" s="23"/>
@@ -2318,7 +2401,7 @@
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C10" s="23"/>
@@ -2342,7 +2425,7 @@
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="23"/>
@@ -2366,7 +2449,7 @@
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="23"/>
@@ -2390,7 +2473,7 @@
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="23"/>
@@ -2414,7 +2497,7 @@
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C14" s="23"/>
@@ -2438,7 +2521,7 @@
       <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C15" s="23"/>
@@ -2466,7 +2549,7 @@
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C16" s="23"/>
@@ -2492,7 +2575,7 @@
     </row>
     <row r="17" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="7"/>
       <c r="D17" s="12"/>
       <c r="E17" s="7"/>
@@ -2514,7 +2597,7 @@
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="7"/>
       <c r="D18" s="12"/>
       <c r="E18" s="7"/>
@@ -2536,7 +2619,7 @@
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C19" s="23"/>
@@ -2564,7 +2647,7 @@
       <c r="A20" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C20" s="23"/>
@@ -2592,7 +2675,7 @@
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C21" s="23"/>
@@ -2617,7 +2700,7 @@
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C22" s="23"/>
@@ -2642,7 +2725,7 @@
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C23" s="23"/>
@@ -2667,7 +2750,7 @@
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C24" s="23"/>
@@ -2692,7 +2775,7 @@
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C25" s="23"/>
@@ -2717,7 +2800,7 @@
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C26" s="23"/>
@@ -2742,7 +2825,7 @@
       <c r="A27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C27" s="23"/>
@@ -2767,7 +2850,7 @@
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C28" s="23"/>
@@ -2792,7 +2875,7 @@
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C29" s="23"/>
@@ -2817,7 +2900,7 @@
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C30" s="23"/>
@@ -2842,7 +2925,7 @@
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C31" s="23"/>
@@ -2866,7 +2949,7 @@
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C32" s="23"/>
@@ -2891,7 +2974,7 @@
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C33" s="23"/>
@@ -2916,7 +2999,7 @@
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C34" s="23"/>
@@ -2941,7 +3024,7 @@
       <c r="A35" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C35" s="23"/>
@@ -2966,7 +3049,7 @@
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C36" s="23"/>
@@ -2991,7 +3074,7 @@
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="23"/>
@@ -3016,7 +3099,7 @@
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C38" s="23"/>
@@ -3041,7 +3124,7 @@
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C39" s="23"/>
@@ -3066,7 +3149,7 @@
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C40" s="23"/>
@@ -3091,7 +3174,7 @@
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C41" s="23"/>
@@ -3116,7 +3199,7 @@
       <c r="A42" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C42" s="23"/>
@@ -3140,7 +3223,7 @@
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C43" s="23"/>
@@ -3164,7 +3247,7 @@
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C44" s="23"/>
@@ -3188,7 +3271,7 @@
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C45" s="23"/>
@@ -3212,7 +3295,7 @@
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C46" s="23"/>
@@ -3236,7 +3319,7 @@
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C47" s="23"/>
@@ -3260,7 +3343,7 @@
       <c r="A48" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C48" s="23"/>
@@ -3284,7 +3367,7 @@
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C49" s="23"/>
@@ -3308,7 +3391,7 @@
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C50" s="23"/>
@@ -3332,7 +3415,7 @@
       <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C51" s="23"/>
@@ -3356,7 +3439,7 @@
       <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C52" s="23"/>
@@ -3380,7 +3463,7 @@
       <c r="A53" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="23"/>
@@ -3404,7 +3487,7 @@
       <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C54" s="23"/>
@@ -3428,7 +3511,7 @@
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C55" s="23"/>
@@ -3452,7 +3535,7 @@
       <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C56" s="23"/>
@@ -3476,7 +3559,7 @@
       <c r="A57" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C57" s="23"/>
@@ -3500,7 +3583,7 @@
       <c r="A58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C58" s="23"/>
@@ -3524,7 +3607,7 @@
       <c r="A59" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C59" s="23"/>
@@ -3548,7 +3631,7 @@
       <c r="A60" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C60" s="23"/>
@@ -3572,7 +3655,7 @@
       <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C61" s="23"/>
@@ -3596,7 +3679,7 @@
       <c r="A62" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C62" s="23"/>
@@ -3620,7 +3703,7 @@
       <c r="A63" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C63" s="23"/>
@@ -3642,7 +3725,7 @@
     </row>
     <row r="64" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
-      <c r="B64" s="9"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="7"/>
       <c r="D64" s="27"/>
       <c r="E64" s="7"/>
@@ -3660,14 +3743,16 @@
       <c r="A65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="12">
         <v>0.5</v>
       </c>
-      <c r="E65" s="29"/>
+      <c r="E65" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F65" s="29"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -3682,14 +3767,16 @@
       <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="12">
         <v>0.5</v>
       </c>
-      <c r="E66" s="29"/>
+      <c r="E66" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F66" s="29"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -3704,14 +3791,16 @@
       <c r="A67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="12">
         <v>0.5</v>
       </c>
-      <c r="E67" s="29"/>
+      <c r="E67" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F67" s="29"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -3726,14 +3815,16 @@
       <c r="A68" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="12">
         <v>0.5</v>
       </c>
-      <c r="E68" s="29"/>
+      <c r="E68" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F68" s="29"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -3750,14 +3841,16 @@
       <c r="A69" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="12">
         <v>0.5</v>
       </c>
-      <c r="E69" s="29"/>
+      <c r="E69" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F69" s="29"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -3774,14 +3867,16 @@
       <c r="A70" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="12">
         <v>0.5</v>
       </c>
-      <c r="E70" s="29"/>
+      <c r="E70" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F70" s="29"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -3798,14 +3893,16 @@
       <c r="A71" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="12">
         <v>0.5</v>
       </c>
-      <c r="E71" s="29"/>
+      <c r="E71" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F71" s="29"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -3822,14 +3919,16 @@
       <c r="A72" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="12">
         <v>0.5</v>
       </c>
-      <c r="E72" s="29"/>
+      <c r="E72" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F72" s="29"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -3846,14 +3945,16 @@
       <c r="A73" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="12">
         <v>0.5</v>
       </c>
-      <c r="E73" s="29"/>
+      <c r="E73" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F73" s="29"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -3870,14 +3971,16 @@
       <c r="A74" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="12">
         <v>0.5</v>
       </c>
-      <c r="E74" s="29"/>
+      <c r="E74" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F74" s="29"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -3894,14 +3997,16 @@
       <c r="A75" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="12">
         <v>0.5</v>
       </c>
-      <c r="E75" s="29"/>
+      <c r="E75" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F75" s="29"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -3918,14 +4023,16 @@
       <c r="A76" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="12">
         <v>0.5</v>
       </c>
-      <c r="E76" s="29"/>
+      <c r="E76" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F76" s="29"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -3942,14 +4049,16 @@
       <c r="A77" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="12">
         <v>0.5</v>
       </c>
-      <c r="E77" s="29"/>
+      <c r="E77" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F77" s="29"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -3966,14 +4075,16 @@
       <c r="A78" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="12">
         <v>0.5</v>
       </c>
-      <c r="E78" s="29"/>
+      <c r="E78" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F78" s="29"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -3990,14 +4101,16 @@
       <c r="A79" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="12">
         <v>0.5</v>
       </c>
-      <c r="E79" s="29"/>
+      <c r="E79" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F79" s="29"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -4014,14 +4127,16 @@
       <c r="A80" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="12">
         <v>0.5</v>
       </c>
-      <c r="E80" s="29"/>
+      <c r="E80" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F80" s="29"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -4038,14 +4153,16 @@
       <c r="A81" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="12">
         <v>0.5</v>
       </c>
-      <c r="E81" s="29"/>
+      <c r="E81" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F81" s="29"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -4062,14 +4179,16 @@
       <c r="A82" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="12">
         <v>0.5</v>
       </c>
-      <c r="E82" s="29"/>
+      <c r="E82" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F82" s="29"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -4086,14 +4205,16 @@
       <c r="A83" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="12">
         <v>0.5</v>
       </c>
-      <c r="E83" s="29"/>
+      <c r="E83" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F83" s="29"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -4110,14 +4231,16 @@
       <c r="A84" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="12">
         <v>0.5</v>
       </c>
-      <c r="E84" s="29"/>
+      <c r="E84" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F84" s="29"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -4135,14 +4258,16 @@
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="12">
         <v>0.5</v>
       </c>
-      <c r="E85" s="29"/>
+      <c r="E85" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F85" s="29"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -4160,14 +4285,16 @@
       <c r="A86" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="12">
         <v>0.5</v>
       </c>
-      <c r="E86" s="29"/>
+      <c r="E86" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F86" s="29"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -4185,14 +4312,16 @@
       <c r="A87" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="12">
         <v>0.5</v>
       </c>
-      <c r="E87" s="29"/>
+      <c r="E87" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F87" s="29"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -4210,14 +4339,16 @@
       <c r="A88" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="12">
         <v>0.5</v>
       </c>
-      <c r="E88" s="29"/>
+      <c r="E88" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F88" s="29"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -4243,7 +4374,7 @@
         <v>0.5</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="7"/>
@@ -4269,7 +4400,9 @@
       <c r="D90" s="12">
         <v>0.5</v>
       </c>
-      <c r="E90" s="29"/>
+      <c r="E90" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F90" s="29"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -4293,7 +4426,9 @@
       <c r="D91" s="12">
         <v>0.5</v>
       </c>
-      <c r="E91" s="29"/>
+      <c r="E91" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F91" s="29"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -4317,7 +4452,9 @@
       <c r="D92" s="12">
         <v>0.5</v>
       </c>
-      <c r="E92" s="29"/>
+      <c r="E92" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F92" s="29"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -4341,7 +4478,9 @@
       <c r="D93" s="12">
         <v>0.5</v>
       </c>
-      <c r="E93" s="29"/>
+      <c r="E93" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F93" s="29"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -4365,7 +4504,9 @@
       <c r="D94" s="12">
         <v>0.5</v>
       </c>
-      <c r="E94" s="29"/>
+      <c r="E94" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F94" s="29"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -4389,7 +4530,9 @@
       <c r="D95" s="12">
         <v>0.5</v>
       </c>
-      <c r="E95" s="29"/>
+      <c r="E95" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F95" s="29"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -4413,7 +4556,9 @@
       <c r="D96" s="12">
         <v>0.5</v>
       </c>
-      <c r="E96" s="29"/>
+      <c r="E96" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F96" s="29"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -4437,7 +4582,9 @@
       <c r="D97" s="12">
         <v>0.5</v>
       </c>
-      <c r="E97" s="29"/>
+      <c r="E97" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F97" s="29"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -4461,7 +4608,9 @@
       <c r="D98" s="12">
         <v>0.5</v>
       </c>
-      <c r="E98" s="29"/>
+      <c r="E98" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F98" s="29"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -4485,7 +4634,9 @@
       <c r="D99" s="12">
         <v>0.5</v>
       </c>
-      <c r="E99" s="29"/>
+      <c r="E99" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F99" s="29"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
@@ -4509,7 +4660,9 @@
       <c r="D100" s="12">
         <v>0.5</v>
       </c>
-      <c r="E100" s="29"/>
+      <c r="E100" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F100" s="29"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -4533,7 +4686,9 @@
       <c r="D101" s="12">
         <v>0.5</v>
       </c>
-      <c r="E101" s="29"/>
+      <c r="E101" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F101" s="29"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -4557,7 +4712,9 @@
       <c r="D102" s="12">
         <v>0.5</v>
       </c>
-      <c r="E102" s="29"/>
+      <c r="E102" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F102" s="29"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -4581,7 +4738,9 @@
       <c r="D103" s="12">
         <v>0.5</v>
       </c>
-      <c r="E103" s="29"/>
+      <c r="E103" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="F103" s="29"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -4596,7 +4755,7 @@
     </row>
     <row r="104" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
-      <c r="B104" s="7"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="7"/>
       <c r="D104" s="12"/>
       <c r="E104" s="7"/>
@@ -4623,7 +4782,9 @@
       <c r="D105" s="12">
         <v>1</v>
       </c>
-      <c r="E105" s="29"/>
+      <c r="E105" s="31" t="s">
+        <v>169</v>
+      </c>
       <c r="F105" s="29"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -4647,7 +4808,9 @@
       <c r="D106" s="12">
         <v>1</v>
       </c>
-      <c r="E106" s="29"/>
+      <c r="E106" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="F106" s="29"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -4671,7 +4834,9 @@
       <c r="D107" s="12">
         <v>1</v>
       </c>
-      <c r="E107" s="29"/>
+      <c r="E107" s="29" t="s">
+        <v>171</v>
+      </c>
       <c r="F107" s="29"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -4695,7 +4860,9 @@
       <c r="D108" s="12">
         <v>1</v>
       </c>
-      <c r="E108" s="29"/>
+      <c r="E108" s="29" t="s">
+        <v>172</v>
+      </c>
       <c r="F108" s="29"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -4719,7 +4886,9 @@
       <c r="D109" s="12">
         <v>1</v>
       </c>
-      <c r="E109" s="29"/>
+      <c r="E109" s="29" t="s">
+        <v>173</v>
+      </c>
       <c r="F109" s="29"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -4743,7 +4912,9 @@
       <c r="D110" s="12">
         <v>1</v>
       </c>
-      <c r="E110" s="29"/>
+      <c r="E110" s="29" t="s">
+        <v>174</v>
+      </c>
       <c r="F110" s="29"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -4767,7 +4938,9 @@
       <c r="D111" s="12">
         <v>1</v>
       </c>
-      <c r="E111" s="29"/>
+      <c r="E111" s="29" t="s">
+        <v>175</v>
+      </c>
       <c r="F111" s="29"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -4791,7 +4964,9 @@
       <c r="D112" s="12">
         <v>1</v>
       </c>
-      <c r="E112" s="29"/>
+      <c r="E112" s="31" t="s">
+        <v>176</v>
+      </c>
       <c r="F112" s="29"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -4815,7 +4990,9 @@
       <c r="D113" s="12">
         <v>1</v>
       </c>
-      <c r="E113" s="29"/>
+      <c r="E113" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="F113" s="29"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -4839,7 +5016,9 @@
       <c r="D114" s="12">
         <v>1</v>
       </c>
-      <c r="E114" s="29"/>
+      <c r="E114" s="29" t="s">
+        <v>178</v>
+      </c>
       <c r="F114" s="29"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -4863,7 +5042,9 @@
       <c r="D115" s="12">
         <v>1</v>
       </c>
-      <c r="E115" s="29"/>
+      <c r="E115" s="29" t="s">
+        <v>179</v>
+      </c>
       <c r="F115" s="29"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
@@ -4887,7 +5068,9 @@
       <c r="D116" s="12">
         <v>1</v>
       </c>
-      <c r="E116" s="29"/>
+      <c r="E116" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="F116" s="29"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -4911,7 +5094,9 @@
       <c r="D117" s="12">
         <v>1</v>
       </c>
-      <c r="E117" s="29"/>
+      <c r="E117" s="29" t="s">
+        <v>181</v>
+      </c>
       <c r="F117" s="29"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -4935,7 +5120,9 @@
       <c r="D118" s="12">
         <v>1</v>
       </c>
-      <c r="E118" s="29"/>
+      <c r="E118" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="F118" s="29"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
@@ -4959,7 +5146,9 @@
       <c r="D119" s="12">
         <v>1</v>
       </c>
-      <c r="E119" s="29"/>
+      <c r="E119" s="29" t="s">
+        <v>183</v>
+      </c>
       <c r="F119" s="29"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
@@ -4976,14 +5165,16 @@
       <c r="A120" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="22" t="s">
-        <v>5</v>
+      <c r="B120" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="12">
         <v>1</v>
       </c>
-      <c r="E120" s="29"/>
+      <c r="E120" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="F120" s="29"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>

--- a/Assignment2/AndrewDodgeA2-grid.xlsx
+++ b/Assignment2/AndrewDodgeA2-grid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RoyalD\Documents\Class\4004 - Software Quality Assurance\Assignments\Comp4004\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35372C53-3F73-4A19-911D-8DE8C4271145}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3973E-EC84-449A-ABF6-5FA710351346}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="192">
   <si>
     <t>First Name</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>maximum</t>
-  </si>
-  <si>
-    <t>yes/no</t>
   </si>
   <si>
     <t xml:space="preserve">two pairs with the same highest pair for each participant, </t>
@@ -538,9 +535,6 @@
   </si>
   <si>
     <t>handHasPairDefinitions.java</t>
-  </si>
-  <si>
-    <t>FIX THIS ANDREW, TO NAME OF FUNCTION</t>
   </si>
   <si>
     <t>HTBWinsDefinitions.java</t>
@@ -623,6 +617,33 @@
   </si>
   <si>
     <t>AIPHasHighCardExchangeDefinitions.java</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>BothRoyalFlushDefinitions.java</t>
+  </si>
+  <si>
+    <t>BothHaveSFDistinctHighCardDefinitions.java</t>
+  </si>
+  <si>
+    <t>BothHaveSFDifferentSuitDefinitions.java</t>
+  </si>
+  <si>
+    <t>BothHaveFoaKDefinitions.java</t>
+  </si>
+  <si>
+    <t>BothHaveFullHouseDefinitions.java</t>
+  </si>
+  <si>
+    <t>BothHaveThreeoaKindDefinitions.java</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -891,7 +912,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -930,6 +951,8 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2190,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2206,16 +2229,16 @@
   <sheetData>
     <row r="1" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
+      <c r="C1" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -2229,16 +2252,16 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
+      <c r="C2" s="37" t="s">
+        <v>184</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2255,9 +2278,11 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>100938015</v>
+      </c>
       <c r="D3" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2286,10 +2311,10 @@
     </row>
     <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="12"/>
@@ -2306,7 +2331,7 @@
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
@@ -2315,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2329,16 +2354,14 @@
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2351,17 +2374,17 @@
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="12">
         <v>3</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="7"/>
@@ -2375,17 +2398,17 @@
     </row>
     <row r="9" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="12">
         <v>2</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="7"/>
@@ -2399,17 +2422,17 @@
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="12">
         <v>2</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="7"/>
@@ -2423,17 +2446,17 @@
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="12">
         <v>2</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="7"/>
@@ -2447,17 +2470,17 @@
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="12">
         <v>2</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="7"/>
@@ -2471,17 +2494,17 @@
     </row>
     <row r="13" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="12">
         <v>2</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="7"/>
@@ -2495,17 +2518,17 @@
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="12">
         <v>3</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="7"/>
@@ -2519,17 +2542,17 @@
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="12">
         <v>2</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="7"/>
@@ -2547,17 +2570,17 @@
     </row>
     <row r="16" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="12">
         <v>2</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="7"/>
@@ -2595,7 +2618,7 @@
     </row>
     <row r="18" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="7"/>
@@ -2617,17 +2640,17 @@
     </row>
     <row r="19" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="12">
         <v>0.5</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="7"/>
@@ -2645,17 +2668,17 @@
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="12">
         <v>0.5</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="7"/>
@@ -2673,17 +2696,17 @@
     </row>
     <row r="21" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="12">
         <v>0.5</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="7"/>
@@ -2698,17 +2721,17 @@
     </row>
     <row r="22" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="12">
         <v>0.5</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="7"/>
@@ -2723,17 +2746,17 @@
     </row>
     <row r="23" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="12">
         <v>0.5</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="7"/>
@@ -2748,17 +2771,17 @@
     </row>
     <row r="24" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="12">
         <v>0.5</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="7"/>
@@ -2773,17 +2796,17 @@
     </row>
     <row r="25" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="12">
         <v>0.5</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="7"/>
@@ -2798,17 +2821,17 @@
     </row>
     <row r="26" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="12">
         <v>0.5</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="7"/>
@@ -2823,17 +2846,17 @@
     </row>
     <row r="27" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="12">
         <v>0.5</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="7"/>
@@ -2848,17 +2871,17 @@
     </row>
     <row r="28" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="12">
         <v>0.5</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="7"/>
@@ -2873,17 +2896,17 @@
     </row>
     <row r="29" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="12">
         <v>0.5</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="7"/>
@@ -2898,17 +2921,17 @@
     </row>
     <row r="30" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="12">
         <v>0.5</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="7"/>
@@ -2923,17 +2946,17 @@
     </row>
     <row r="31" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="12">
         <v>0.5</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="7"/>
@@ -2947,17 +2970,17 @@
     </row>
     <row r="32" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="12">
         <v>0.5</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="7"/>
@@ -2972,17 +2995,17 @@
     </row>
     <row r="33" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="12">
         <v>0.5</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="7"/>
@@ -2997,17 +3020,17 @@
     </row>
     <row r="34" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="12">
         <v>0.5</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="7"/>
@@ -3022,17 +3045,17 @@
     </row>
     <row r="35" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="12">
         <v>0.5</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="7"/>
@@ -3047,17 +3070,17 @@
     </row>
     <row r="36" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="12">
         <v>0.5</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="7"/>
@@ -3072,17 +3095,17 @@
     </row>
     <row r="37" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="12">
         <v>0.5</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="7"/>
@@ -3097,17 +3120,17 @@
     </row>
     <row r="38" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="12">
         <v>0.5</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="7"/>
@@ -3122,17 +3145,17 @@
     </row>
     <row r="39" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="12">
         <v>0.5</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="7"/>
@@ -3147,17 +3170,17 @@
     </row>
     <row r="40" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="12">
         <v>0.5</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="7"/>
@@ -3172,17 +3195,17 @@
     </row>
     <row r="41" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="12">
         <v>0.5</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="7"/>
@@ -3197,17 +3220,17 @@
     </row>
     <row r="42" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="12">
         <v>0.5</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="7"/>
@@ -3221,17 +3244,17 @@
     </row>
     <row r="43" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="12">
         <v>0.5</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="7"/>
@@ -3245,17 +3268,17 @@
     </row>
     <row r="44" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="12">
         <v>0.5</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="7"/>
@@ -3269,17 +3292,17 @@
     </row>
     <row r="45" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="12">
         <v>0.5</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="7"/>
@@ -3293,17 +3316,17 @@
     </row>
     <row r="46" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="12">
         <v>0.5</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="7"/>
@@ -3317,17 +3340,17 @@
     </row>
     <row r="47" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="12">
         <v>0.5</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="7"/>
@@ -3341,17 +3364,17 @@
     </row>
     <row r="48" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="12">
         <v>0.5</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="7"/>
@@ -3365,17 +3388,17 @@
     </row>
     <row r="49" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="12">
         <v>0.5</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="7"/>
@@ -3389,17 +3412,17 @@
     </row>
     <row r="50" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="12">
         <v>0.5</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="7"/>
@@ -3413,17 +3436,17 @@
     </row>
     <row r="51" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="12">
         <v>0.5</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F51" s="29"/>
       <c r="G51" s="7"/>
@@ -3437,17 +3460,17 @@
     </row>
     <row r="52" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="12">
         <v>0.5</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="7"/>
@@ -3461,17 +3484,17 @@
     </row>
     <row r="53" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="12">
         <v>0.5</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="7"/>
@@ -3485,17 +3508,17 @@
     </row>
     <row r="54" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="12">
         <v>0.5</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F54" s="29"/>
       <c r="G54" s="7"/>
@@ -3509,17 +3532,17 @@
     </row>
     <row r="55" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="12">
         <v>0.5</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="7"/>
@@ -3533,17 +3556,17 @@
     </row>
     <row r="56" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="12">
         <v>0.5</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="7"/>
@@ -3557,17 +3580,17 @@
     </row>
     <row r="57" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="12">
         <v>0.5</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="7"/>
@@ -3581,17 +3604,17 @@
     </row>
     <row r="58" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="12">
         <v>0.5</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="7"/>
@@ -3605,17 +3628,17 @@
     </row>
     <row r="59" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="12">
         <v>0.5</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="7"/>
@@ -3629,17 +3652,17 @@
     </row>
     <row r="60" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="12">
         <v>0.5</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="7"/>
@@ -3653,17 +3676,17 @@
     </row>
     <row r="61" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="12">
         <v>0.5</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="7"/>
@@ -3677,17 +3700,17 @@
     </row>
     <row r="62" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="12">
         <v>0.5</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="7"/>
@@ -3701,17 +3724,17 @@
     </row>
     <row r="63" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="12">
         <v>0.5</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="7"/>
@@ -3741,17 +3764,17 @@
     </row>
     <row r="65" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="12">
         <v>0.5</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="7"/>
@@ -3765,17 +3788,17 @@
     </row>
     <row r="66" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="12">
         <v>0.5</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="7"/>
@@ -3789,17 +3812,17 @@
     </row>
     <row r="67" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="12">
         <v>0.5</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="7"/>
@@ -3813,17 +3836,17 @@
     </row>
     <row r="68" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="12">
         <v>0.5</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="7"/>
@@ -3839,17 +3862,17 @@
     </row>
     <row r="69" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="12">
         <v>0.5</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="7"/>
@@ -3865,17 +3888,17 @@
     </row>
     <row r="70" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="12">
         <v>0.5</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="7"/>
@@ -3891,17 +3914,17 @@
     </row>
     <row r="71" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="12">
         <v>0.5</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="7"/>
@@ -3917,17 +3940,17 @@
     </row>
     <row r="72" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="12">
         <v>0.5</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="7"/>
@@ -3943,17 +3966,17 @@
     </row>
     <row r="73" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="12">
         <v>0.5</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="7"/>
@@ -3969,17 +3992,17 @@
     </row>
     <row r="74" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="12">
         <v>0.5</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="7"/>
@@ -3995,17 +4018,17 @@
     </row>
     <row r="75" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="12">
         <v>0.5</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="7"/>
@@ -4021,17 +4044,17 @@
     </row>
     <row r="76" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="12">
         <v>0.5</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="7"/>
@@ -4047,17 +4070,17 @@
     </row>
     <row r="77" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="12">
         <v>0.5</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="7"/>
@@ -4073,17 +4096,17 @@
     </row>
     <row r="78" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="12">
         <v>0.5</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="7"/>
@@ -4099,17 +4122,17 @@
     </row>
     <row r="79" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="12">
         <v>0.5</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="7"/>
@@ -4125,17 +4148,17 @@
     </row>
     <row r="80" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="12">
         <v>0.5</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="7"/>
@@ -4151,17 +4174,17 @@
     </row>
     <row r="81" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="12">
         <v>0.5</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="7"/>
@@ -4177,17 +4200,17 @@
     </row>
     <row r="82" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="12">
         <v>0.5</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F82" s="29"/>
       <c r="G82" s="7"/>
@@ -4203,17 +4226,17 @@
     </row>
     <row r="83" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="12">
         <v>0.5</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F83" s="29"/>
       <c r="G83" s="7"/>
@@ -4229,17 +4252,17 @@
     </row>
     <row r="84" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="12">
         <v>0.5</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="7"/>
@@ -4256,17 +4279,17 @@
     </row>
     <row r="85" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="12">
         <v>0.5</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="7"/>
@@ -4283,17 +4306,17 @@
     </row>
     <row r="86" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="12">
         <v>0.5</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" s="29"/>
       <c r="G86" s="7"/>
@@ -4310,17 +4333,17 @@
     </row>
     <row r="87" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="12">
         <v>0.5</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" s="29"/>
       <c r="G87" s="7"/>
@@ -4337,17 +4360,17 @@
     </row>
     <row r="88" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="12">
         <v>0.5</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" s="29"/>
       <c r="G88" s="7"/>
@@ -4364,17 +4387,17 @@
     </row>
     <row r="89" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="12">
         <v>0.5</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="7"/>
@@ -4391,17 +4414,17 @@
     </row>
     <row r="90" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="12">
         <v>0.5</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" s="29"/>
       <c r="G90" s="7"/>
@@ -4417,17 +4440,17 @@
     </row>
     <row r="91" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C91" s="23"/>
       <c r="D91" s="12">
         <v>0.5</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="7"/>
@@ -4443,17 +4466,17 @@
     </row>
     <row r="92" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="12">
         <v>0.5</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F92" s="29"/>
       <c r="G92" s="7"/>
@@ -4469,17 +4492,17 @@
     </row>
     <row r="93" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="12">
         <v>0.5</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="7"/>
@@ -4495,17 +4518,17 @@
     </row>
     <row r="94" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="12">
         <v>0.5</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F94" s="29"/>
       <c r="G94" s="7"/>
@@ -4521,17 +4544,17 @@
     </row>
     <row r="95" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="12">
         <v>0.5</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="7"/>
@@ -4547,17 +4570,17 @@
     </row>
     <row r="96" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="12">
         <v>0.5</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="7"/>
@@ -4573,17 +4596,17 @@
     </row>
     <row r="97" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="12">
         <v>0.5</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="7"/>
@@ -4599,17 +4622,17 @@
     </row>
     <row r="98" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="12">
         <v>0.5</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F98" s="29"/>
       <c r="G98" s="7"/>
@@ -4625,17 +4648,17 @@
     </row>
     <row r="99" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="12">
         <v>0.5</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F99" s="29"/>
       <c r="G99" s="7"/>
@@ -4651,17 +4674,17 @@
     </row>
     <row r="100" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="12">
         <v>0.5</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="7"/>
@@ -4677,17 +4700,17 @@
     </row>
     <row r="101" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="12">
         <v>0.5</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="7"/>
@@ -4703,17 +4726,17 @@
     </row>
     <row r="102" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="12">
         <v>0.5</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="7"/>
@@ -4729,17 +4752,17 @@
     </row>
     <row r="103" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="12">
         <v>0.5</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F103" s="29"/>
       <c r="G103" s="7"/>
@@ -4773,17 +4796,17 @@
     </row>
     <row r="105" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105" s="23"/>
       <c r="D105" s="12">
         <v>1</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="7"/>
@@ -4799,17 +4822,17 @@
     </row>
     <row r="106" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106" s="23"/>
       <c r="D106" s="12">
         <v>1</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F106" s="29"/>
       <c r="G106" s="7"/>
@@ -4825,17 +4848,17 @@
     </row>
     <row r="107" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="12">
         <v>1</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="7"/>
@@ -4851,17 +4874,17 @@
     </row>
     <row r="108" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="12">
         <v>1</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F108" s="29"/>
       <c r="G108" s="7"/>
@@ -4877,17 +4900,17 @@
     </row>
     <row r="109" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="12">
         <v>1</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F109" s="29"/>
       <c r="G109" s="7"/>
@@ -4903,17 +4926,17 @@
     </row>
     <row r="110" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="12">
         <v>1</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F110" s="29"/>
       <c r="G110" s="7"/>
@@ -4929,17 +4952,17 @@
     </row>
     <row r="111" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="12">
         <v>1</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F111" s="29"/>
       <c r="G111" s="7"/>
@@ -4955,17 +4978,17 @@
     </row>
     <row r="112" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="12">
         <v>1</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F112" s="29"/>
       <c r="G112" s="7"/>
@@ -4981,17 +5004,17 @@
     </row>
     <row r="113" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="12">
         <v>1</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F113" s="29"/>
       <c r="G113" s="7"/>
@@ -5007,17 +5030,17 @@
     </row>
     <row r="114" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="12">
         <v>1</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F114" s="29"/>
       <c r="G114" s="7"/>
@@ -5033,17 +5056,17 @@
     </row>
     <row r="115" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="12">
         <v>1</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F115" s="29"/>
       <c r="G115" s="7"/>
@@ -5059,17 +5082,17 @@
     </row>
     <row r="116" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C116" s="23"/>
       <c r="D116" s="12">
         <v>1</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="7"/>
@@ -5085,17 +5108,17 @@
     </row>
     <row r="117" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C117" s="23"/>
       <c r="D117" s="12">
         <v>1</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F117" s="29"/>
       <c r="G117" s="7"/>
@@ -5111,17 +5134,17 @@
     </row>
     <row r="118" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C118" s="23"/>
       <c r="D118" s="12">
         <v>1</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F118" s="29"/>
       <c r="G118" s="7"/>
@@ -5137,17 +5160,17 @@
     </row>
     <row r="119" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119" s="23"/>
       <c r="D119" s="12">
         <v>1</v>
       </c>
       <c r="E119" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F119" s="29"/>
       <c r="G119" s="7"/>
@@ -5163,17 +5186,17 @@
     </row>
     <row r="120" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="12">
         <v>1</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F120" s="29"/>
       <c r="G120" s="7"/>
@@ -5207,7 +5230,7 @@
     </row>
     <row r="122" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -5227,16 +5250,18 @@
     </row>
     <row r="123" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>5</v>
+        <v>127</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="12">
         <v>2</v>
       </c>
-      <c r="E123" s="29"/>
+      <c r="E123" s="31" t="s">
+        <v>185</v>
+      </c>
       <c r="F123" s="29"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
@@ -5251,16 +5276,18 @@
     </row>
     <row r="124" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>5</v>
+        <v>128</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="12">
         <v>2</v>
       </c>
-      <c r="E124" s="29"/>
+      <c r="E124" s="29" t="s">
+        <v>186</v>
+      </c>
       <c r="F124" s="29"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
@@ -5275,16 +5302,18 @@
     </row>
     <row r="125" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="22" t="s">
-        <v>5</v>
+        <v>129</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="12">
         <v>2</v>
       </c>
-      <c r="E125" s="29"/>
+      <c r="E125" s="31" t="s">
+        <v>187</v>
+      </c>
       <c r="F125" s="29"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
@@ -5299,16 +5328,18 @@
     </row>
     <row r="126" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>5</v>
+        <v>130</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="12">
         <v>1</v>
       </c>
-      <c r="E126" s="29"/>
+      <c r="E126" s="31" t="s">
+        <v>188</v>
+      </c>
       <c r="F126" s="29"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
@@ -5323,16 +5354,18 @@
     </row>
     <row r="127" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="22" t="s">
-        <v>5</v>
+        <v>131</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="C127" s="23"/>
       <c r="D127" s="12">
         <v>1</v>
       </c>
-      <c r="E127" s="29"/>
+      <c r="E127" s="29" t="s">
+        <v>189</v>
+      </c>
       <c r="F127" s="29"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
@@ -5347,16 +5380,18 @@
     </row>
     <row r="128" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>5</v>
+        <v>132</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="12">
         <v>1</v>
       </c>
-      <c r="E128" s="29"/>
+      <c r="E128" s="29" t="s">
+        <v>190</v>
+      </c>
       <c r="F128" s="29"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -5371,10 +5406,10 @@
     </row>
     <row r="129" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="12"/>
@@ -5393,10 +5428,10 @@
     </row>
     <row r="130" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130" s="22" t="s">
-        <v>5</v>
+        <v>134</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="12">
@@ -5417,10 +5452,10 @@
     </row>
     <row r="131" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>5</v>
+        <v>135</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="12">
@@ -5441,10 +5476,10 @@
     </row>
     <row r="132" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" s="20"/>
       <c r="D132" s="27"/>
@@ -5460,10 +5495,10 @@
     </row>
     <row r="133" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B133" s="22" t="s">
-        <v>5</v>
+        <v>136</v>
+      </c>
+      <c r="B133" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C133" s="21"/>
       <c r="D133" s="12">
@@ -5481,10 +5516,10 @@
     </row>
     <row r="134" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>5</v>
+        <v>137</v>
+      </c>
+      <c r="B134" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C134" s="21"/>
       <c r="D134" s="12">
@@ -5502,10 +5537,10 @@
     </row>
     <row r="135" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B135" s="22" t="s">
-        <v>5</v>
+        <v>138</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C135" s="21"/>
       <c r="D135" s="12">
@@ -5523,10 +5558,10 @@
     </row>
     <row r="136" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" s="20"/>
       <c r="D136" s="27"/>
@@ -5542,10 +5577,10 @@
     </row>
     <row r="137" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>5</v>
+        <v>139</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C137" s="21"/>
       <c r="D137" s="12">
@@ -5563,10 +5598,10 @@
     </row>
     <row r="138" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="27"/>
@@ -5582,10 +5617,10 @@
     </row>
     <row r="139" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" s="22" t="s">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C139" s="21"/>
       <c r="D139" s="12">
@@ -5603,10 +5638,10 @@
     </row>
     <row r="140" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="27"/>
@@ -5622,10 +5657,10 @@
     </row>
     <row r="141" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141" s="22" t="s">
-        <v>5</v>
+        <v>141</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C141" s="21"/>
       <c r="D141" s="12">
@@ -5643,10 +5678,10 @@
     </row>
     <row r="142" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" s="22" t="s">
-        <v>5</v>
+        <v>142</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="12">
@@ -5664,10 +5699,10 @@
     </row>
     <row r="143" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>5</v>
+        <v>143</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C143" s="21"/>
       <c r="D143" s="12">
@@ -5685,10 +5720,10 @@
     </row>
     <row r="144" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" s="20"/>
       <c r="D144" s="27"/>
@@ -5704,10 +5739,10 @@
     </row>
     <row r="145" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" s="22" t="s">
-        <v>5</v>
+        <v>144</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C145" s="21"/>
       <c r="D145" s="12">
@@ -5725,10 +5760,10 @@
     </row>
     <row r="146" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="27"/>
@@ -5744,10 +5779,10 @@
     </row>
     <row r="147" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" s="22" t="s">
-        <v>5</v>
+        <v>145</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C147" s="21"/>
       <c r="D147" s="12">
@@ -5765,10 +5800,10 @@
     </row>
     <row r="148" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="27"/>
@@ -5784,10 +5819,10 @@
     </row>
     <row r="149" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" s="22" t="s">
-        <v>5</v>
+        <v>146</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="C149" s="21"/>
       <c r="D149" s="12">
@@ -5820,7 +5855,7 @@
     </row>
     <row r="151" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
